--- a/scenario/scenario_tree/scenarios_reduce/data.xlsx
+++ b/scenario/scenario_tree/scenarios_reduce/data.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>预测值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始1000场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,7 +116,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2460,11 +2463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209245880"/>
-        <c:axId val="209246264"/>
+        <c:axId val="263896800"/>
+        <c:axId val="263814840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209245880"/>
+        <c:axId val="263896800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209246264"/>
+        <c:crossAx val="263814840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209246264"/>
+        <c:axId val="263814840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209245880"/>
+        <c:crossAx val="263896800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,7 +2582,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5009,11 +5011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76860408"/>
-        <c:axId val="76858448"/>
+        <c:axId val="263558240"/>
+        <c:axId val="263557288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76860408"/>
+        <c:axId val="263558240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,7 +5057,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76858448"/>
+        <c:crossAx val="263557288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5063,7 +5065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76858448"/>
+        <c:axId val="263557288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +5116,2556 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76860408"/>
+        <c:crossAx val="263558240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1032:$X$1032</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>170.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1033:$X$1033</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>229.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>249.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>212.179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>193.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220.066</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.27099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1034:$X$1034</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220.73699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>284.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233.548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>257.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219.13399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239.68600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>232.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>231.405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.791</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>143.465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>258.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177.29900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1035:$X$1035</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>269.48200000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>229.506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>160.935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1036:$X$1036</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>232.31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>216.75399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1037:$X$1037</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>221.517</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>235.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>161.10900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1038:$X$1038</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>197.773</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1039:$X$1039</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>227.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>229.947</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1040:$X$1040</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233.35900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>231.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>237.203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213.917</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>246.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>219.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>177.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>197.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1041:$X$1041</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>203.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>161.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175.74700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>268.22699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1042:$X$1042</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214.04900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180.244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>232.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233.791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1043:$X$1043</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.648</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>227.876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>183.32599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1044:$X$1044</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226.70500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>251.999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>162.97999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1045:$X$1045</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264.447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>283.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>222.203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>249.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>247.75399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>285.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>293.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>224.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280.488</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>284.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1046:$X$1046</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.74100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164.07300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>192.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160.83199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182.78899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1047:$X$1047</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>146.82300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135.53299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1048:$X$1048</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264.53199999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>258.601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>189.20599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.251</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>199.74600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>197.55600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>261.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180.322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1049:$X$1049</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.44299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>221.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>223.26599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149.28200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>241.62100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>222.309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>193.19399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>193.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206.55099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158.09700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187.85900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>170.45500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1050:$X$1050</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>220.482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>216.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>202.636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>236.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137.768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>受限正态分布场景!$A$1051:$X$1051</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>148.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200.14699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>152.48599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="368447280"/>
+        <c:axId val="368448456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="368447280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368448456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="368448456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368447280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5236,6 +7787,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6281,6 +8872,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6320,16 +9414,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1006</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1014</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1032</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1038</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6343,6 +9437,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1017</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1038</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9641,10 +12765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1027"/>
+  <dimension ref="A1:X1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="Q1034" sqref="Q1034"/>
+    <sheetView tabSelected="1" topLeftCell="E1012" workbookViewId="0">
+      <selection activeCell="Z1036" sqref="Z1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -85221,6 +88345,1491 @@
         <v>160.227</v>
       </c>
     </row>
+    <row r="1031" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1031" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1032">
+        <v>148.13</v>
+      </c>
+      <c r="B1032">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1032">
+        <v>242.268</v>
+      </c>
+      <c r="D1032">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1032">
+        <v>300</v>
+      </c>
+      <c r="F1032">
+        <v>300</v>
+      </c>
+      <c r="G1032">
+        <v>300</v>
+      </c>
+      <c r="H1032">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1032">
+        <v>240.369</v>
+      </c>
+      <c r="J1032">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1032">
+        <v>300</v>
+      </c>
+      <c r="L1032">
+        <v>300</v>
+      </c>
+      <c r="M1032">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1032">
+        <v>300</v>
+      </c>
+      <c r="O1032">
+        <v>300</v>
+      </c>
+      <c r="P1032">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1032">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1032">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1032">
+        <v>180.851</v>
+      </c>
+      <c r="T1032">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1032">
+        <v>237.291</v>
+      </c>
+      <c r="V1032">
+        <v>187.24199999999999</v>
+      </c>
+      <c r="W1032">
+        <v>104.428</v>
+      </c>
+      <c r="X1032">
+        <v>170.28</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1033">
+        <v>148.13</v>
+      </c>
+      <c r="B1033">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1033">
+        <v>242.268</v>
+      </c>
+      <c r="D1033">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1033">
+        <v>300</v>
+      </c>
+      <c r="F1033">
+        <v>300</v>
+      </c>
+      <c r="G1033">
+        <v>300</v>
+      </c>
+      <c r="H1033">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1033">
+        <v>240.369</v>
+      </c>
+      <c r="J1033">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1033">
+        <v>300</v>
+      </c>
+      <c r="L1033">
+        <v>300</v>
+      </c>
+      <c r="M1033">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1033">
+        <v>300</v>
+      </c>
+      <c r="O1033">
+        <v>300</v>
+      </c>
+      <c r="P1033">
+        <v>236.54599999999999</v>
+      </c>
+      <c r="Q1033">
+        <v>229.81200000000001</v>
+      </c>
+      <c r="R1033">
+        <v>249.20699999999999</v>
+      </c>
+      <c r="S1033">
+        <v>181.71799999999999</v>
+      </c>
+      <c r="T1033">
+        <v>212.179</v>
+      </c>
+      <c r="U1033">
+        <v>187.17099999999999</v>
+      </c>
+      <c r="V1033">
+        <v>193.26499999999999</v>
+      </c>
+      <c r="W1033">
+        <v>220.066</v>
+      </c>
+      <c r="X1033">
+        <v>212.27099999999999</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1034">
+        <v>148.13</v>
+      </c>
+      <c r="B1034">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1034">
+        <v>242.268</v>
+      </c>
+      <c r="D1034">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1034">
+        <v>300</v>
+      </c>
+      <c r="F1034">
+        <v>251.017</v>
+      </c>
+      <c r="G1034">
+        <v>300</v>
+      </c>
+      <c r="H1034">
+        <v>220.73699999999999</v>
+      </c>
+      <c r="I1034">
+        <v>284.65100000000001</v>
+      </c>
+      <c r="J1034">
+        <v>259.33600000000001</v>
+      </c>
+      <c r="K1034">
+        <v>300</v>
+      </c>
+      <c r="L1034">
+        <v>300</v>
+      </c>
+      <c r="M1034">
+        <v>300</v>
+      </c>
+      <c r="N1034">
+        <v>233.548</v>
+      </c>
+      <c r="O1034">
+        <v>257.08600000000001</v>
+      </c>
+      <c r="P1034">
+        <v>219.13399999999999</v>
+      </c>
+      <c r="Q1034">
+        <v>239.68600000000001</v>
+      </c>
+      <c r="R1034">
+        <v>201.97399999999999</v>
+      </c>
+      <c r="S1034">
+        <v>232.31100000000001</v>
+      </c>
+      <c r="T1034">
+        <v>231.405</v>
+      </c>
+      <c r="U1034">
+        <v>185.791</v>
+      </c>
+      <c r="V1034">
+        <v>143.465</v>
+      </c>
+      <c r="W1034">
+        <v>258.21100000000001</v>
+      </c>
+      <c r="X1034">
+        <v>177.29900000000001</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1035">
+        <v>148.13</v>
+      </c>
+      <c r="B1035">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1035">
+        <v>242.268</v>
+      </c>
+      <c r="D1035">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1035">
+        <v>300</v>
+      </c>
+      <c r="F1035">
+        <v>300</v>
+      </c>
+      <c r="G1035">
+        <v>300</v>
+      </c>
+      <c r="H1035">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1035">
+        <v>240.369</v>
+      </c>
+      <c r="J1035">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1035">
+        <v>300</v>
+      </c>
+      <c r="L1035">
+        <v>300</v>
+      </c>
+      <c r="M1035">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1035">
+        <v>300</v>
+      </c>
+      <c r="O1035">
+        <v>300</v>
+      </c>
+      <c r="P1035">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1035">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1035">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1035">
+        <v>180.851</v>
+      </c>
+      <c r="T1035">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1035">
+        <v>269.48200000000003</v>
+      </c>
+      <c r="V1035">
+        <v>180.28</v>
+      </c>
+      <c r="W1035">
+        <v>229.506</v>
+      </c>
+      <c r="X1035">
+        <v>160.935</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1036">
+        <v>148.13</v>
+      </c>
+      <c r="B1036">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1036">
+        <v>242.268</v>
+      </c>
+      <c r="D1036">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1036">
+        <v>300</v>
+      </c>
+      <c r="F1036">
+        <v>300</v>
+      </c>
+      <c r="G1036">
+        <v>300</v>
+      </c>
+      <c r="H1036">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1036">
+        <v>240.369</v>
+      </c>
+      <c r="J1036">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1036">
+        <v>300</v>
+      </c>
+      <c r="L1036">
+        <v>300</v>
+      </c>
+      <c r="M1036">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1036">
+        <v>300</v>
+      </c>
+      <c r="O1036">
+        <v>300</v>
+      </c>
+      <c r="P1036">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1036">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1036">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1036">
+        <v>180.851</v>
+      </c>
+      <c r="T1036">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1036">
+        <v>237.291</v>
+      </c>
+      <c r="V1036">
+        <v>187.24199999999999</v>
+      </c>
+      <c r="W1036">
+        <v>232.31</v>
+      </c>
+      <c r="X1036">
+        <v>216.75399999999999</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1037">
+        <v>148.13</v>
+      </c>
+      <c r="B1037">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1037">
+        <v>242.268</v>
+      </c>
+      <c r="D1037">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1037">
+        <v>300</v>
+      </c>
+      <c r="F1037">
+        <v>300</v>
+      </c>
+      <c r="G1037">
+        <v>300</v>
+      </c>
+      <c r="H1037">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1037">
+        <v>240.369</v>
+      </c>
+      <c r="J1037">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1037">
+        <v>300</v>
+      </c>
+      <c r="L1037">
+        <v>300</v>
+      </c>
+      <c r="M1037">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1037">
+        <v>300</v>
+      </c>
+      <c r="O1037">
+        <v>300</v>
+      </c>
+      <c r="P1037">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1037">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1037">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1037">
+        <v>201.679</v>
+      </c>
+      <c r="T1037">
+        <v>166.68899999999999</v>
+      </c>
+      <c r="U1037">
+        <v>210.96100000000001</v>
+      </c>
+      <c r="V1037">
+        <v>221.517</v>
+      </c>
+      <c r="W1037">
+        <v>235.02199999999999</v>
+      </c>
+      <c r="X1037">
+        <v>161.10900000000001</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1038">
+        <v>148.13</v>
+      </c>
+      <c r="B1038">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1038">
+        <v>242.268</v>
+      </c>
+      <c r="D1038">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1038">
+        <v>300</v>
+      </c>
+      <c r="F1038">
+        <v>300</v>
+      </c>
+      <c r="G1038">
+        <v>300</v>
+      </c>
+      <c r="H1038">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1038">
+        <v>240.369</v>
+      </c>
+      <c r="J1038">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1038">
+        <v>300</v>
+      </c>
+      <c r="L1038">
+        <v>300</v>
+      </c>
+      <c r="M1038">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1038">
+        <v>300</v>
+      </c>
+      <c r="O1038">
+        <v>300</v>
+      </c>
+      <c r="P1038">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1038">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1038">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1038">
+        <v>180.851</v>
+      </c>
+      <c r="T1038">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1038">
+        <v>237.291</v>
+      </c>
+      <c r="V1038">
+        <v>187.24199999999999</v>
+      </c>
+      <c r="W1038">
+        <v>197.773</v>
+      </c>
+      <c r="X1038">
+        <v>154.154</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1039">
+        <v>148.13</v>
+      </c>
+      <c r="B1039">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1039">
+        <v>242.268</v>
+      </c>
+      <c r="D1039">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1039">
+        <v>300</v>
+      </c>
+      <c r="F1039">
+        <v>300</v>
+      </c>
+      <c r="G1039">
+        <v>300</v>
+      </c>
+      <c r="H1039">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1039">
+        <v>240.369</v>
+      </c>
+      <c r="J1039">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1039">
+        <v>300</v>
+      </c>
+      <c r="L1039">
+        <v>300</v>
+      </c>
+      <c r="M1039">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1039">
+        <v>300</v>
+      </c>
+      <c r="O1039">
+        <v>300</v>
+      </c>
+      <c r="P1039">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1039">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1039">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1039">
+        <v>180.851</v>
+      </c>
+      <c r="T1039">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1039">
+        <v>206.18299999999999</v>
+      </c>
+      <c r="V1039">
+        <v>227.61099999999999</v>
+      </c>
+      <c r="W1039">
+        <v>229.947</v>
+      </c>
+      <c r="X1039">
+        <v>212.226</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1040">
+        <v>148.13</v>
+      </c>
+      <c r="B1040">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1040">
+        <v>242.268</v>
+      </c>
+      <c r="D1040">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1040">
+        <v>300</v>
+      </c>
+      <c r="F1040">
+        <v>300</v>
+      </c>
+      <c r="G1040">
+        <v>300</v>
+      </c>
+      <c r="H1040">
+        <v>233.35900000000001</v>
+      </c>
+      <c r="I1040">
+        <v>300</v>
+      </c>
+      <c r="J1040">
+        <v>286.51</v>
+      </c>
+      <c r="K1040">
+        <v>267.51</v>
+      </c>
+      <c r="L1040">
+        <v>300</v>
+      </c>
+      <c r="M1040">
+        <v>231.91800000000001</v>
+      </c>
+      <c r="N1040">
+        <v>237.203</v>
+      </c>
+      <c r="O1040">
+        <v>300</v>
+      </c>
+      <c r="P1040">
+        <v>213.917</v>
+      </c>
+      <c r="Q1040">
+        <v>246.05</v>
+      </c>
+      <c r="R1040">
+        <v>188.59100000000001</v>
+      </c>
+      <c r="S1040">
+        <v>219.71</v>
+      </c>
+      <c r="T1040">
+        <v>177.1</v>
+      </c>
+      <c r="U1040">
+        <v>229</v>
+      </c>
+      <c r="V1040">
+        <v>197.57900000000001</v>
+      </c>
+      <c r="W1040">
+        <v>166.78100000000001</v>
+      </c>
+      <c r="X1040">
+        <v>185.46</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1041">
+        <v>148.13</v>
+      </c>
+      <c r="B1041">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1041">
+        <v>242.268</v>
+      </c>
+      <c r="D1041">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1041">
+        <v>300</v>
+      </c>
+      <c r="F1041">
+        <v>300</v>
+      </c>
+      <c r="G1041">
+        <v>300</v>
+      </c>
+      <c r="H1041">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1041">
+        <v>240.369</v>
+      </c>
+      <c r="J1041">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1041">
+        <v>300</v>
+      </c>
+      <c r="L1041">
+        <v>300</v>
+      </c>
+      <c r="M1041">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1041">
+        <v>300</v>
+      </c>
+      <c r="O1041">
+        <v>279.03800000000001</v>
+      </c>
+      <c r="P1041">
+        <v>207.38900000000001</v>
+      </c>
+      <c r="Q1041">
+        <v>280.21699999999998</v>
+      </c>
+      <c r="R1041">
+        <v>117.7</v>
+      </c>
+      <c r="S1041">
+        <v>203.76900000000001</v>
+      </c>
+      <c r="T1041">
+        <v>161.87799999999999</v>
+      </c>
+      <c r="U1041">
+        <v>270.47300000000001</v>
+      </c>
+      <c r="V1041">
+        <v>175.74700000000001</v>
+      </c>
+      <c r="W1041">
+        <v>268.22699999999998</v>
+      </c>
+      <c r="X1041">
+        <v>122.873</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1042">
+        <v>148.13</v>
+      </c>
+      <c r="B1042">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1042">
+        <v>242.268</v>
+      </c>
+      <c r="D1042">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1042">
+        <v>300</v>
+      </c>
+      <c r="F1042">
+        <v>300</v>
+      </c>
+      <c r="G1042">
+        <v>300</v>
+      </c>
+      <c r="H1042">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1042">
+        <v>240.369</v>
+      </c>
+      <c r="J1042">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1042">
+        <v>300</v>
+      </c>
+      <c r="L1042">
+        <v>300</v>
+      </c>
+      <c r="M1042">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1042">
+        <v>300</v>
+      </c>
+      <c r="O1042">
+        <v>300</v>
+      </c>
+      <c r="P1042">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1042">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1042">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1042">
+        <v>181.80600000000001</v>
+      </c>
+      <c r="T1042">
+        <v>203.46600000000001</v>
+      </c>
+      <c r="U1042">
+        <v>214.04900000000001</v>
+      </c>
+      <c r="V1042">
+        <v>180.244</v>
+      </c>
+      <c r="W1042">
+        <v>232.57499999999999</v>
+      </c>
+      <c r="X1042">
+        <v>233.791</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1043">
+        <v>148.13</v>
+      </c>
+      <c r="B1043">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1043">
+        <v>242.268</v>
+      </c>
+      <c r="D1043">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1043">
+        <v>300</v>
+      </c>
+      <c r="F1043">
+        <v>300</v>
+      </c>
+      <c r="G1043">
+        <v>300</v>
+      </c>
+      <c r="H1043">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1043">
+        <v>240.369</v>
+      </c>
+      <c r="J1043">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1043">
+        <v>300</v>
+      </c>
+      <c r="L1043">
+        <v>300</v>
+      </c>
+      <c r="M1043">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1043">
+        <v>300</v>
+      </c>
+      <c r="O1043">
+        <v>300</v>
+      </c>
+      <c r="P1043">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1043">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1043">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1043">
+        <v>180.851</v>
+      </c>
+      <c r="T1043">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1043">
+        <v>169.648</v>
+      </c>
+      <c r="V1043">
+        <v>227.876</v>
+      </c>
+      <c r="W1043">
+        <v>186.72399999999999</v>
+      </c>
+      <c r="X1043">
+        <v>183.32599999999999</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1044">
+        <v>148.13</v>
+      </c>
+      <c r="B1044">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1044">
+        <v>242.268</v>
+      </c>
+      <c r="D1044">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1044">
+        <v>300</v>
+      </c>
+      <c r="F1044">
+        <v>300</v>
+      </c>
+      <c r="G1044">
+        <v>300</v>
+      </c>
+      <c r="H1044">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1044">
+        <v>240.369</v>
+      </c>
+      <c r="J1044">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1044">
+        <v>300</v>
+      </c>
+      <c r="L1044">
+        <v>300</v>
+      </c>
+      <c r="M1044">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1044">
+        <v>300</v>
+      </c>
+      <c r="O1044">
+        <v>300</v>
+      </c>
+      <c r="P1044">
+        <v>220.56399999999999</v>
+      </c>
+      <c r="Q1044">
+        <v>113.628</v>
+      </c>
+      <c r="R1044">
+        <v>223.66</v>
+      </c>
+      <c r="S1044">
+        <v>226.70500000000001</v>
+      </c>
+      <c r="T1044">
+        <v>210.47300000000001</v>
+      </c>
+      <c r="U1044">
+        <v>185.505</v>
+      </c>
+      <c r="V1044">
+        <v>202.74</v>
+      </c>
+      <c r="W1044">
+        <v>251.999</v>
+      </c>
+      <c r="X1044">
+        <v>162.97999999999999</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1045">
+        <v>148.13</v>
+      </c>
+      <c r="B1045">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1045">
+        <v>264.447</v>
+      </c>
+      <c r="D1045">
+        <v>283.14</v>
+      </c>
+      <c r="E1045">
+        <v>300</v>
+      </c>
+      <c r="F1045">
+        <v>240.07</v>
+      </c>
+      <c r="G1045">
+        <v>300</v>
+      </c>
+      <c r="H1045">
+        <v>281.375</v>
+      </c>
+      <c r="I1045">
+        <v>300</v>
+      </c>
+      <c r="J1045">
+        <v>256.84699999999998</v>
+      </c>
+      <c r="K1045">
+        <v>222.203</v>
+      </c>
+      <c r="L1045">
+        <v>249.82900000000001</v>
+      </c>
+      <c r="M1045">
+        <v>247.75399999999999</v>
+      </c>
+      <c r="N1045">
+        <v>285.77100000000002</v>
+      </c>
+      <c r="O1045">
+        <v>293.19099999999997</v>
+      </c>
+      <c r="P1045">
+        <v>233.73099999999999</v>
+      </c>
+      <c r="Q1045">
+        <v>224.93700000000001</v>
+      </c>
+      <c r="R1045">
+        <v>280.488</v>
+      </c>
+      <c r="S1045">
+        <v>155.67500000000001</v>
+      </c>
+      <c r="T1045">
+        <v>192.15899999999999</v>
+      </c>
+      <c r="U1045">
+        <v>181.08600000000001</v>
+      </c>
+      <c r="V1045">
+        <v>159.98599999999999</v>
+      </c>
+      <c r="W1045">
+        <v>284.7</v>
+      </c>
+      <c r="X1045">
+        <v>111.815</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1046">
+        <v>148.13</v>
+      </c>
+      <c r="B1046">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1046">
+        <v>242.268</v>
+      </c>
+      <c r="D1046">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1046">
+        <v>300</v>
+      </c>
+      <c r="F1046">
+        <v>300</v>
+      </c>
+      <c r="G1046">
+        <v>300</v>
+      </c>
+      <c r="H1046">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1046">
+        <v>240.369</v>
+      </c>
+      <c r="J1046">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1046">
+        <v>300</v>
+      </c>
+      <c r="L1046">
+        <v>300</v>
+      </c>
+      <c r="M1046">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1046">
+        <v>300</v>
+      </c>
+      <c r="O1046">
+        <v>300</v>
+      </c>
+      <c r="P1046">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1046">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1046">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1046">
+        <v>181.74100000000001</v>
+      </c>
+      <c r="T1046">
+        <v>164.07300000000001</v>
+      </c>
+      <c r="U1046">
+        <v>192.82900000000001</v>
+      </c>
+      <c r="V1046">
+        <v>113.44</v>
+      </c>
+      <c r="W1046">
+        <v>160.83199999999999</v>
+      </c>
+      <c r="X1046">
+        <v>182.78899999999999</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1047">
+        <v>148.13</v>
+      </c>
+      <c r="B1047">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1047">
+        <v>242.268</v>
+      </c>
+      <c r="D1047">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1047">
+        <v>300</v>
+      </c>
+      <c r="F1047">
+        <v>300</v>
+      </c>
+      <c r="G1047">
+        <v>300</v>
+      </c>
+      <c r="H1047">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1047">
+        <v>240.369</v>
+      </c>
+      <c r="J1047">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1047">
+        <v>300</v>
+      </c>
+      <c r="L1047">
+        <v>300</v>
+      </c>
+      <c r="M1047">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1047">
+        <v>300</v>
+      </c>
+      <c r="O1047">
+        <v>300</v>
+      </c>
+      <c r="P1047">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1047">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1047">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1047">
+        <v>180.851</v>
+      </c>
+      <c r="T1047">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1047">
+        <v>237.291</v>
+      </c>
+      <c r="V1047">
+        <v>187.24199999999999</v>
+      </c>
+      <c r="W1047">
+        <v>146.82300000000001</v>
+      </c>
+      <c r="X1047">
+        <v>135.53299999999999</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1048">
+        <v>148.13</v>
+      </c>
+      <c r="B1048">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1048">
+        <v>242.268</v>
+      </c>
+      <c r="D1048">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1048">
+        <v>300</v>
+      </c>
+      <c r="F1048">
+        <v>300</v>
+      </c>
+      <c r="G1048">
+        <v>300</v>
+      </c>
+      <c r="H1048">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1048">
+        <v>240.369</v>
+      </c>
+      <c r="J1048">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1048">
+        <v>300</v>
+      </c>
+      <c r="L1048">
+        <v>300</v>
+      </c>
+      <c r="M1048">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1048">
+        <v>300</v>
+      </c>
+      <c r="O1048">
+        <v>300</v>
+      </c>
+      <c r="P1048">
+        <v>264.53199999999998</v>
+      </c>
+      <c r="Q1048">
+        <v>258.601</v>
+      </c>
+      <c r="R1048">
+        <v>118.49299999999999</v>
+      </c>
+      <c r="S1048">
+        <v>189.20599999999999</v>
+      </c>
+      <c r="T1048">
+        <v>187.251</v>
+      </c>
+      <c r="U1048">
+        <v>199.74600000000001</v>
+      </c>
+      <c r="V1048">
+        <v>197.55600000000001</v>
+      </c>
+      <c r="W1048">
+        <v>261.94900000000001</v>
+      </c>
+      <c r="X1048">
+        <v>180.322</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1049">
+        <v>148.13</v>
+      </c>
+      <c r="B1049">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1049">
+        <v>242.268</v>
+      </c>
+      <c r="D1049">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1049">
+        <v>300</v>
+      </c>
+      <c r="F1049">
+        <v>300</v>
+      </c>
+      <c r="G1049">
+        <v>300</v>
+      </c>
+      <c r="H1049">
+        <v>288.44299999999998</v>
+      </c>
+      <c r="I1049">
+        <v>300</v>
+      </c>
+      <c r="J1049">
+        <v>221.78299999999999</v>
+      </c>
+      <c r="K1049">
+        <v>223.26599999999999</v>
+      </c>
+      <c r="L1049">
+        <v>149.28200000000001</v>
+      </c>
+      <c r="M1049">
+        <v>300</v>
+      </c>
+      <c r="N1049">
+        <v>271.25900000000001</v>
+      </c>
+      <c r="O1049">
+        <v>246.54599999999999</v>
+      </c>
+      <c r="P1049">
+        <v>241.62100000000001</v>
+      </c>
+      <c r="Q1049">
+        <v>222.309</v>
+      </c>
+      <c r="R1049">
+        <v>193.19399999999999</v>
+      </c>
+      <c r="S1049">
+        <v>200.08600000000001</v>
+      </c>
+      <c r="T1049">
+        <v>193.48</v>
+      </c>
+      <c r="U1049">
+        <v>206.55099999999999</v>
+      </c>
+      <c r="V1049">
+        <v>158.09700000000001</v>
+      </c>
+      <c r="W1049">
+        <v>187.85900000000001</v>
+      </c>
+      <c r="X1049">
+        <v>170.45500000000001</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1050">
+        <v>148.13</v>
+      </c>
+      <c r="B1050">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1050">
+        <v>242.268</v>
+      </c>
+      <c r="D1050">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1050">
+        <v>300</v>
+      </c>
+      <c r="F1050">
+        <v>300</v>
+      </c>
+      <c r="G1050">
+        <v>300</v>
+      </c>
+      <c r="H1050">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1050">
+        <v>240.369</v>
+      </c>
+      <c r="J1050">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1050">
+        <v>300</v>
+      </c>
+      <c r="L1050">
+        <v>300</v>
+      </c>
+      <c r="M1050">
+        <v>230.82</v>
+      </c>
+      <c r="N1050">
+        <v>300</v>
+      </c>
+      <c r="O1050">
+        <v>291.76799999999997</v>
+      </c>
+      <c r="P1050">
+        <v>262.61599999999999</v>
+      </c>
+      <c r="Q1050">
+        <v>220.482</v>
+      </c>
+      <c r="R1050">
+        <v>216.89699999999999</v>
+      </c>
+      <c r="S1050">
+        <v>192.92699999999999</v>
+      </c>
+      <c r="T1050">
+        <v>202.636</v>
+      </c>
+      <c r="U1050">
+        <v>236.48699999999999</v>
+      </c>
+      <c r="V1050">
+        <v>200.28800000000001</v>
+      </c>
+      <c r="W1050">
+        <v>171.78299999999999</v>
+      </c>
+      <c r="X1050">
+        <v>137.768</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1051">
+        <v>148.13</v>
+      </c>
+      <c r="B1051">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="C1051">
+        <v>242.268</v>
+      </c>
+      <c r="D1051">
+        <v>291.11399999999998</v>
+      </c>
+      <c r="E1051">
+        <v>300</v>
+      </c>
+      <c r="F1051">
+        <v>300</v>
+      </c>
+      <c r="G1051">
+        <v>300</v>
+      </c>
+      <c r="H1051">
+        <v>283.29500000000002</v>
+      </c>
+      <c r="I1051">
+        <v>240.369</v>
+      </c>
+      <c r="J1051">
+        <v>259.30599999999998</v>
+      </c>
+      <c r="K1051">
+        <v>300</v>
+      </c>
+      <c r="L1051">
+        <v>300</v>
+      </c>
+      <c r="M1051">
+        <v>257.77699999999999</v>
+      </c>
+      <c r="N1051">
+        <v>300</v>
+      </c>
+      <c r="O1051">
+        <v>300</v>
+      </c>
+      <c r="P1051">
+        <v>256.21300000000002</v>
+      </c>
+      <c r="Q1051">
+        <v>275.66800000000001</v>
+      </c>
+      <c r="R1051">
+        <v>203.93600000000001</v>
+      </c>
+      <c r="S1051">
+        <v>180.851</v>
+      </c>
+      <c r="T1051">
+        <v>162.30699999999999</v>
+      </c>
+      <c r="U1051">
+        <v>237.291</v>
+      </c>
+      <c r="V1051">
+        <v>187.24199999999999</v>
+      </c>
+      <c r="W1051">
+        <v>200.14699999999999</v>
+      </c>
+      <c r="X1051">
+        <v>152.48599999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
